--- a/sample-catch-json.xlsx
+++ b/sample-catch-json.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang/Desktop/ltn-ute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D17559CF-8FEF-834B-BCF8-A8FC15FFDCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE0C58D-2325-784D-866B-4E3C15200F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{E520541F-6446-CF46-AEC0-D11BFB74BCE6}"/>
+    <workbookView xWindow="33600" yWindow="-7300" windowWidth="51200" windowHeight="28300" xr2:uid="{E520541F-6446-CF46-AEC0-D11BFB74BCE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>f_masv</t>
   </si>
@@ -59,27 +59,15 @@
     <t>{"mssv":"</t>
   </si>
   <si>
-    <t>19842006</t>
-  </si>
-  <si>
     <t>","hoTen":"</t>
   </si>
   <si>
-    <t>Nguyễn Chí</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Linh</t>
-  </si>
-  <si>
     <t>","nganh":"</t>
   </si>
   <si>
-    <t>CÔNG NGHỆ KỸ THUẬT ĐIỆN, ĐIỆN TỬ</t>
-  </si>
-  <si>
     <t>","danhHieu":"</t>
   </si>
   <si>
@@ -87,13 +75,22 @@
   </si>
   <si>
     <t>"},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn </t>
+  </si>
+  <si>
+    <t>Hậu</t>
+  </si>
+  <si>
+    <t>Công nghệ chế tạo máy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,16 +109,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -181,27 +190,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE2E713-0BD6-D34D-B370-69A52087788F}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,46 +583,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7">
+        <v>20643023</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" s="1" t="str">
-        <f>A2&amp;B2&amp;C2&amp;D2&amp;PROPER(E2)&amp;PROPER(F2)&amp;G2&amp;PROPER(H2)&amp;I2&amp;J2&amp;K2</f>
-        <v>{"mssv":"19842006","hoTen":"Nguyễn Chí Linh","nganh":"Công Nghệ Kỹ Thuật Điện, Điện Tử","danhHieu":"Kỹ sư"},</v>
+        <f>$A$2&amp;B2&amp;$C$2&amp;D2&amp;PROPER($E$2)&amp;PROPER(F2)&amp;$G$2&amp;PROPER(H2)&amp;$I$2&amp;J2&amp;K$2</f>
+        <v>{"mssv":"20643023","hoTen":"Nguyễn Văn  Hậu","nganh":"Công Nghệ Chế Tạo Máy","danhHieu":"Kỹ sư"},</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>